--- a/data/trans_orig/P1425-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1425-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>13937</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7848</v>
+        <v>8023</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22637</v>
+        <v>22809</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02385926855621498</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0134343055144812</v>
+        <v>0.0137342268619465</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03875280567722357</v>
+        <v>0.03904746829846543</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -764,19 +764,19 @@
         <v>16747</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9741</v>
+        <v>9419</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27288</v>
+        <v>27095</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01815729513802854</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01056118027366144</v>
+        <v>0.01021265095228094</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0295860716819335</v>
+        <v>0.02937679458757999</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -785,19 +785,19 @@
         <v>30684</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21061</v>
+        <v>20394</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44836</v>
+        <v>41986</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02036825767780641</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01398031549017485</v>
+        <v>0.01353778022230201</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02976191174019617</v>
+        <v>0.02787015419721491</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>570204</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>561504</v>
+        <v>561332</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>576293</v>
+        <v>576118</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.976140731443785</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9612471943227764</v>
+        <v>0.9609525317015346</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9865656944855188</v>
+        <v>0.9862657731380535</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>869</v>
@@ -835,19 +835,19 @@
         <v>905586</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>895045</v>
+        <v>895238</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>912592</v>
+        <v>912914</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9818427048619714</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9704139283180663</v>
+        <v>0.9706232054124199</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9894388197263384</v>
+        <v>0.989787349047719</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1429</v>
@@ -856,19 +856,19 @@
         <v>1475790</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1461638</v>
+        <v>1464488</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1485413</v>
+        <v>1486080</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9796317423221936</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9702380882598037</v>
+        <v>0.9721298458027844</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9860196845098251</v>
+        <v>0.9864622197776974</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>13369</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7343</v>
+        <v>7619</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22973</v>
+        <v>21962</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01240247525354366</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006812411265179124</v>
+        <v>0.007068314373511886</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02131278624504601</v>
+        <v>0.02037483465080499</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -981,19 +981,19 @@
         <v>7945</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3568</v>
+        <v>3669</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15175</v>
+        <v>14871</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007512659443944497</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003374204800656759</v>
+        <v>0.003469136554557426</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01434914493094136</v>
+        <v>0.01406161090796709</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -1002,19 +1002,19 @@
         <v>21313</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13996</v>
+        <v>13851</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32104</v>
+        <v>31609</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009980873460306929</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006554007285839952</v>
+        <v>0.00648614143776263</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01503403385212976</v>
+        <v>0.01480223663241827</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>1064525</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1054921</v>
+        <v>1055932</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1070551</v>
+        <v>1070275</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9875975247464563</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9786872137549542</v>
+        <v>0.9796251653491942</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9931875887348208</v>
+        <v>0.992931685626488</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1020</v>
@@ -1052,19 +1052,19 @@
         <v>1049593</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1042363</v>
+        <v>1042667</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1053970</v>
+        <v>1053869</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9924873405560555</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9856508550690586</v>
+        <v>0.9859383890920329</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9966257951993432</v>
+        <v>0.9965308634454426</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2062</v>
@@ -1073,19 +1073,19 @@
         <v>2114119</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2103328</v>
+        <v>2103823</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2121436</v>
+        <v>2121581</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.990019126539693</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.98496596614787</v>
+        <v>0.9851977633675819</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.99344599271416</v>
+        <v>0.9935138585622374</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>13426</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6996</v>
+        <v>7772</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21918</v>
+        <v>22301</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01197090924002937</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006237215667238422</v>
+        <v>0.006929782528811951</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01954214751194109</v>
+        <v>0.01988355533158323</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1198,19 +1198,19 @@
         <v>9324</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4821</v>
+        <v>4328</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17469</v>
+        <v>17050</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009380501623126661</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004850622470229134</v>
+        <v>0.004354602810966371</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0175759440479756</v>
+        <v>0.01715427724628403</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -1219,19 +1219,19 @@
         <v>22750</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15285</v>
+        <v>14455</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33507</v>
+        <v>34074</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01075386008440541</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007225345444207372</v>
+        <v>0.00683301910378139</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01583874188032905</v>
+        <v>0.01610670374862633</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>1108168</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1099676</v>
+        <v>1099293</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1114598</v>
+        <v>1113822</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9880290907599706</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9804578524880589</v>
+        <v>0.9801164446684166</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9937627843327616</v>
+        <v>0.9930702174711878</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>973</v>
@@ -1269,19 +1269,19 @@
         <v>984616</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>976471</v>
+        <v>976890</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>989119</v>
+        <v>989612</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9906194983768734</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9824240559520243</v>
+        <v>0.982845722753716</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9951493775297708</v>
+        <v>0.9956453971890336</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2062</v>
@@ -1290,19 +1290,19 @@
         <v>2092784</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2082027</v>
+        <v>2081460</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2100249</v>
+        <v>2101079</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9892461399155946</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9841612581196713</v>
+        <v>0.9838932962513725</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9927746545557927</v>
+        <v>0.9931669808962186</v>
       </c>
     </row>
     <row r="12">
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4367</v>
+        <v>4325</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002531136001550933</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01280059632719766</v>
+        <v>0.01267724188306753</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4368</v>
+        <v>5215</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.00109533726235837</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.005541181813557523</v>
+        <v>0.006615533390958711</v>
       </c>
     </row>
     <row r="14">
@@ -1470,7 +1470,7 @@
         <v>340294</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>336791</v>
+        <v>336833</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>341158</v>
@@ -1479,7 +1479,7 @@
         <v>0.997468863998449</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9871994036728023</v>
+        <v>0.9873227581169325</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1491,7 +1491,7 @@
         <v>787494</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>783990</v>
+        <v>783143</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>788358</v>
@@ -1500,7 +1500,7 @@
         <v>0.9989046627376417</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9944588181864434</v>
+        <v>0.9933844666090412</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1595,19 +1595,19 @@
         <v>40732</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28918</v>
+        <v>28785</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52914</v>
+        <v>53699</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01260736490705344</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008950679346144399</v>
+        <v>0.008909472071391129</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01637786803496691</v>
+        <v>0.01662086098845365</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -1616,19 +1616,19 @@
         <v>34879</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24270</v>
+        <v>24009</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48625</v>
+        <v>48687</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01052171811092422</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007321294082875401</v>
+        <v>0.007242625040903683</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01466842288812225</v>
+        <v>0.01468688224424697</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>75</v>
@@ -1637,19 +1637,19 @@
         <v>75611</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>59058</v>
+        <v>60371</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>93620</v>
+        <v>95120</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01155113708308317</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009022277657623097</v>
+        <v>0.009222876620304054</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01430226457042571</v>
+        <v>0.0145314088285681</v>
       </c>
     </row>
     <row r="17">
@@ -1666,19 +1666,19 @@
         <v>3190097</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3177915</v>
+        <v>3177130</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3201911</v>
+        <v>3202044</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9873926350929466</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9836221319650331</v>
+        <v>0.9833791390115465</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9910493206538556</v>
+        <v>0.9910905279286091</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3200</v>
@@ -1687,19 +1687,19 @@
         <v>3280090</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3266344</v>
+        <v>3266282</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3290699</v>
+        <v>3290960</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9894782818890758</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9853315771118778</v>
+        <v>0.9853131177557527</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9926787059171245</v>
+        <v>0.9927573749590962</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6327</v>
@@ -1708,19 +1708,19 @@
         <v>6470187</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6452178</v>
+        <v>6450678</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6486740</v>
+        <v>6485427</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9884488629169168</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9856977354295743</v>
+        <v>0.9854685911714319</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9909777223423768</v>
+        <v>0.9907771233796958</v>
       </c>
     </row>
     <row r="18">
@@ -2052,19 +2052,19 @@
         <v>12341</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6993</v>
+        <v>7027</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22054</v>
+        <v>22393</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0118220176331742</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006699130007977181</v>
+        <v>0.006731525363587405</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02112567795990736</v>
+        <v>0.02145083179036511</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2073,19 +2073,19 @@
         <v>3307</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9025</v>
+        <v>8851</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002956581434526818</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0009508122106401311</v>
+        <v>0.0009457698047772862</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.008067958851978335</v>
+        <v>0.007912110716577653</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -2094,19 +2094,19 @@
         <v>15649</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8814</v>
+        <v>9171</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27076</v>
+        <v>26205</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007236147579700505</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004075623958201034</v>
+        <v>0.004240557571915065</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01252038833831556</v>
+        <v>0.01211739966801595</v>
       </c>
     </row>
     <row r="5">
@@ -2123,19 +2123,19 @@
         <v>1031594</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1021881</v>
+        <v>1021542</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1036942</v>
+        <v>1036908</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9881779823668257</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9788743220400924</v>
+        <v>0.9785491682096349</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9933008699920228</v>
+        <v>0.9932684746364125</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1027</v>
@@ -2144,19 +2144,19 @@
         <v>1115346</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1109628</v>
+        <v>1109802</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1117589</v>
+        <v>1117595</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9970434185654732</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9919320411480221</v>
+        <v>0.9920878892834224</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9990491877893598</v>
+        <v>0.9990542301952227</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1994</v>
@@ -2165,19 +2165,19 @@
         <v>2146939</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2135512</v>
+        <v>2136383</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2153774</v>
+        <v>2153417</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9927638524202995</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9874796116616845</v>
+        <v>0.9878826003319842</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9959243760417991</v>
+        <v>0.9957594424280849</v>
       </c>
     </row>
     <row r="6">
@@ -2269,19 +2269,19 @@
         <v>7986</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3735</v>
+        <v>3145</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18114</v>
+        <v>16818</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008173732418211305</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003822929847492964</v>
+        <v>0.003218937363622109</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01853953570101053</v>
+        <v>0.01721287684016901</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -2290,19 +2290,19 @@
         <v>11175</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5399</v>
+        <v>5459</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19953</v>
+        <v>21516</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01023038880092275</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004942411401542193</v>
+        <v>0.004997148363699484</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.018266901852953</v>
+        <v>0.01969783496973437</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -2311,19 +2311,19 @@
         <v>19161</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11241</v>
+        <v>11292</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31275</v>
+        <v>30651</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009259332805062477</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005432159053264954</v>
+        <v>0.005456605401456252</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01511313725561949</v>
+        <v>0.01481134100712342</v>
       </c>
     </row>
     <row r="8">
@@ -2340,19 +2340,19 @@
         <v>969087</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>958959</v>
+        <v>960255</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>973338</v>
+        <v>973928</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9918262675817887</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9814604642989895</v>
+        <v>0.9827871231598311</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.996177070152507</v>
+        <v>0.9967810626363779</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1009</v>
@@ -2361,19 +2361,19 @@
         <v>1081152</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1072374</v>
+        <v>1070811</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1086928</v>
+        <v>1086868</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9897696111990772</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.981733098147047</v>
+        <v>0.9803021650302661</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9950575885984577</v>
+        <v>0.9950028516363006</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1926</v>
@@ -2382,19 +2382,19 @@
         <v>2050239</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2038125</v>
+        <v>2038749</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2058159</v>
+        <v>2058108</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9907406671949375</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9848868627443805</v>
+        <v>0.9851886589928766</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.994567840946735</v>
+        <v>0.9945433945985438</v>
       </c>
     </row>
     <row r="9">
@@ -2486,19 +2486,19 @@
         <v>11476</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5329</v>
+        <v>5190</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21080</v>
+        <v>22846</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01296580274488119</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006020999298385782</v>
+        <v>0.00586334114537813</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02381596553582655</v>
+        <v>0.02581151640197741</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -2507,19 +2507,19 @@
         <v>4105</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1097</v>
+        <v>1079</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10295</v>
+        <v>9758</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004686610271910545</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001252159438707548</v>
+        <v>0.001231974611000726</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01175510115864759</v>
+        <v>0.01114233606018603</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -2528,19 +2528,19 @@
         <v>15581</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8367</v>
+        <v>8410</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26826</v>
+        <v>27254</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008848114628471843</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004751540704071798</v>
+        <v>0.004776039188763243</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01523410265543305</v>
+        <v>0.01547744072765362</v>
       </c>
     </row>
     <row r="11">
@@ -2557,19 +2557,19 @@
         <v>873639</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>864035</v>
+        <v>862269</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>879786</v>
+        <v>879925</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9870341972551188</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9761840344641732</v>
+        <v>0.9741884835980228</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.993979000701614</v>
+        <v>0.9941366588546219</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>817</v>
@@ -2578,19 +2578,19 @@
         <v>871691</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>865501</v>
+        <v>866038</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>874699</v>
+        <v>874717</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9953133897280895</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9882448988413525</v>
+        <v>0.9888576639398141</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9987478405612925</v>
+        <v>0.9987680253889992</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1638</v>
@@ -2599,19 +2599,19 @@
         <v>1745330</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1734085</v>
+        <v>1733657</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1752544</v>
+        <v>1752501</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9911518853715282</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9847658973445669</v>
+        <v>0.9845225592723463</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9952484592959282</v>
+        <v>0.9952239608112368</v>
       </c>
     </row>
     <row r="12">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5091</v>
+        <v>5895</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001960808952711666</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01012037890158053</v>
+        <v>0.0117200490468819</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9657</v>
+        <v>10435</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00633343564954947</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02132953841270175</v>
+        <v>0.02304804469904004</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -2745,19 +2745,19 @@
         <v>3854</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12740</v>
+        <v>11410</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004032089749444784</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001032260115057088</v>
+        <v>0.0010304272049432</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01332950361103405</v>
+        <v>0.01193784007962216</v>
       </c>
     </row>
     <row r="14">
@@ -2774,7 +2774,7 @@
         <v>502037</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>497932</v>
+        <v>497128</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>503023</v>
@@ -2783,7 +2783,7 @@
         <v>0.9980391910472883</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9898796210984194</v>
+        <v>0.988279950953118</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2795,7 +2795,7 @@
         <v>449869</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>443079</v>
+        <v>442301</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>452736</v>
@@ -2804,7 +2804,7 @@
         <v>0.9936665643504505</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9786704615872981</v>
+        <v>0.9769519553009599</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -2816,19 +2816,19 @@
         <v>951904</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>943018</v>
+        <v>944348</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>954771</v>
+        <v>954773</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9959679102505552</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9866704963889629</v>
+        <v>0.9880621599203778</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9989677398849429</v>
+        <v>0.9989695727950568</v>
       </c>
     </row>
     <row r="15">
@@ -2920,19 +2920,19 @@
         <v>32790</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21510</v>
+        <v>22274</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46986</v>
+        <v>47340</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009618336320330649</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006309628872163597</v>
+        <v>0.006533597452029728</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.013782274655783</v>
+        <v>0.01388620022590903</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -2941,19 +2941,19 @@
         <v>21454</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13118</v>
+        <v>13122</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33238</v>
+        <v>32676</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006061346383847137</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003706126765212726</v>
+        <v>0.003707296982170778</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009390509807217517</v>
+        <v>0.009231793998951498</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -2962,19 +2962,19 @@
         <v>54245</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39327</v>
+        <v>39730</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>71985</v>
+        <v>72575</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007806474457216273</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005659642919811405</v>
+        <v>0.005717581340360851</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01035953874275484</v>
+        <v>0.01044451430463287</v>
       </c>
     </row>
     <row r="17">
@@ -2991,19 +2991,19 @@
         <v>3376355</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3362159</v>
+        <v>3361805</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3387635</v>
+        <v>3386871</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9903816636796694</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.986217725344217</v>
+        <v>0.986113799774091</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9936903711278364</v>
+        <v>0.9934664025479703</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3263</v>
@@ -3012,19 +3012,19 @@
         <v>3518057</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3506273</v>
+        <v>3506835</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3526393</v>
+        <v>3526389</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9939386536161529</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9906094901927824</v>
+        <v>0.9907682060010489</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9962938732347872</v>
+        <v>0.9962927030178295</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6428</v>
@@ -3033,19 +3033,19 @@
         <v>6894412</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6876672</v>
+        <v>6876082</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6909330</v>
+        <v>6908927</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9921935255427837</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9896404612572455</v>
+        <v>0.9895554856953671</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9943403570801889</v>
+        <v>0.9942824186596393</v>
       </c>
     </row>
     <row r="18">
@@ -3377,19 +3377,19 @@
         <v>12651</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6387</v>
+        <v>6984</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21928</v>
+        <v>22677</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0112158781270495</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005662200852300855</v>
+        <v>0.006191638799672416</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01944001813738219</v>
+        <v>0.02010390216083984</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -3398,19 +3398,19 @@
         <v>17039</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9920</v>
+        <v>9090</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30223</v>
+        <v>28149</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0135276469217891</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007875435490166215</v>
+        <v>0.007216519972787666</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02399524440577113</v>
+        <v>0.02234807662284784</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -3419,19 +3419,19 @@
         <v>29690</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19575</v>
+        <v>19394</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43424</v>
+        <v>42738</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01243545615735782</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008198781464307935</v>
+        <v>0.0081230739311381</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01818781419483129</v>
+        <v>0.01790022204703505</v>
       </c>
     </row>
     <row r="5">
@@ -3448,19 +3448,19 @@
         <v>1115346</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1106069</v>
+        <v>1105320</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1121610</v>
+        <v>1121013</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9887841218729505</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9805599818626178</v>
+        <v>0.9798960978391601</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9943377991476992</v>
+        <v>0.9938083612003276</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1174</v>
@@ -3469,19 +3469,19 @@
         <v>1242522</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1229338</v>
+        <v>1231412</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1249641</v>
+        <v>1250471</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9864723530782109</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9760047555942291</v>
+        <v>0.9776519233771523</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9921245645098339</v>
+        <v>0.9927834800272124</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2228</v>
@@ -3490,19 +3490,19 @@
         <v>2357868</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2344134</v>
+        <v>2344820</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2367983</v>
+        <v>2368164</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9875645438426421</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9818121858051693</v>
+        <v>0.9820997779529658</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9918012185356921</v>
+        <v>0.991876926068862</v>
       </c>
     </row>
     <row r="6">
@@ -3594,19 +3594,19 @@
         <v>9334</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4347</v>
+        <v>4968</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16593</v>
+        <v>17089</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01027041369287316</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004783018271181999</v>
+        <v>0.005466702946492231</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01825798177739845</v>
+        <v>0.01880343077350307</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -3615,19 +3615,19 @@
         <v>5180</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1963</v>
+        <v>2052</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10485</v>
+        <v>11474</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005147160178688606</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001950551112575687</v>
+        <v>0.002038319958975917</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01041779841049239</v>
+        <v>0.01140060738154665</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -3636,19 +3636,19 @@
         <v>14514</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8344</v>
+        <v>8362</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23976</v>
+        <v>23965</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007578183808718475</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004356470823436225</v>
+        <v>0.004365804915005171</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01251799128221816</v>
+        <v>0.01251215273591541</v>
       </c>
     </row>
     <row r="8">
@@ -3665,19 +3665,19 @@
         <v>899491</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>892232</v>
+        <v>891736</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>904478</v>
+        <v>903857</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9897295863071268</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9817420182226015</v>
+        <v>0.9811965692264972</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.995216981728818</v>
+        <v>0.9945332970535079</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>946</v>
@@ -3686,19 +3686,19 @@
         <v>1001295</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>995990</v>
+        <v>995001</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1004512</v>
+        <v>1004423</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9948528398213113</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9895822015895079</v>
+        <v>0.9885993926184532</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9980494488874243</v>
+        <v>0.9979616800410241</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1818</v>
@@ -3707,19 +3707,19 @@
         <v>1900786</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1891324</v>
+        <v>1891335</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1906956</v>
+        <v>1906938</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9924218161912816</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9874820087177818</v>
+        <v>0.9874878472640846</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9956435291765638</v>
+        <v>0.9956341950849948</v>
       </c>
     </row>
     <row r="9">
@@ -3811,19 +3811,19 @@
         <v>6765</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2871</v>
+        <v>2983</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13381</v>
+        <v>14012</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0082128804736924</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003485098245615647</v>
+        <v>0.003621767055812268</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01624382362285893</v>
+        <v>0.01701022767166934</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -3832,19 +3832,19 @@
         <v>7309</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2969</v>
+        <v>3212</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15364</v>
+        <v>15063</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009479468615616663</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00385097905493557</v>
+        <v>0.004166107859694338</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01992590207272069</v>
+        <v>0.01953577633450018</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -3853,19 +3853,19 @@
         <v>14075</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7737</v>
+        <v>7544</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23998</v>
+        <v>23444</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008825247407095076</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00485119910973294</v>
+        <v>0.004730120969220457</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01504768212739935</v>
+        <v>0.01470036867446729</v>
       </c>
     </row>
     <row r="11">
@@ -3882,19 +3882,19 @@
         <v>816994</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>810378</v>
+        <v>809747</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>820888</v>
+        <v>820776</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9917871195263076</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9837561763771411</v>
+        <v>0.9829897723283308</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9965149017543844</v>
+        <v>0.9963782329441877</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>722</v>
@@ -3903,19 +3903,19 @@
         <v>763750</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>755695</v>
+        <v>755996</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>768090</v>
+        <v>767847</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9905205313843833</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.980074097927279</v>
+        <v>0.9804642236654995</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9961490209450644</v>
+        <v>0.9958338921403056</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1502</v>
@@ -3924,19 +3924,19 @@
         <v>1580743</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1570820</v>
+        <v>1571374</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1587081</v>
+        <v>1587274</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9911747525929049</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9849523178726006</v>
+        <v>0.9852996313255307</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.995148800890267</v>
+        <v>0.9952698790307793</v>
       </c>
     </row>
     <row r="12">
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6186</v>
+        <v>5735</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003591395579778871</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01220903994349091</v>
+        <v>0.01131796367252282</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -4049,19 +4049,19 @@
         <v>4227</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1031</v>
+        <v>1280</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10021</v>
+        <v>10412</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008632234384273546</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002105152010092621</v>
+        <v>0.002613576994086889</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02046405197165466</v>
+        <v>0.02126296195115157</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -4070,19 +4070,19 @@
         <v>6047</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2030</v>
+        <v>2133</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12259</v>
+        <v>12555</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006068804506047223</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00203736906354328</v>
+        <v>0.00214103703406132</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01230343196427195</v>
+        <v>0.01260029323354069</v>
       </c>
     </row>
     <row r="14">
@@ -4099,7 +4099,7 @@
         <v>504881</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>500515</v>
+        <v>500966</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>506701</v>
@@ -4108,7 +4108,7 @@
         <v>0.9964086044202212</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.987790960056509</v>
+        <v>0.9886820363274775</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -4120,19 +4120,19 @@
         <v>485471</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>479677</v>
+        <v>479286</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>488667</v>
+        <v>488418</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9913677656157265</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9795359480283469</v>
+        <v>0.9787370380488495</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9978948479899074</v>
+        <v>0.9973864230059132</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>920</v>
@@ -4141,19 +4141,19 @@
         <v>990351</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>984139</v>
+        <v>983843</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>994368</v>
+        <v>994265</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9939311954939528</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.987696568035728</v>
+        <v>0.9873997067664584</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9979626309364568</v>
+        <v>0.9978589629659383</v>
       </c>
     </row>
     <row r="15">
@@ -4245,19 +4245,19 @@
         <v>30571</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20155</v>
+        <v>20092</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42752</v>
+        <v>43387</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009078741849803505</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005985469113522979</v>
+        <v>0.00596695889269848</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01269638056205962</v>
+        <v>0.0128847954914748</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -4266,19 +4266,19 @@
         <v>33756</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22879</v>
+        <v>23667</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48114</v>
+        <v>48570</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00957124505509213</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006487312665443166</v>
+        <v>0.006710493062970343</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01364248538397298</v>
+        <v>0.01377165618266465</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>59</v>
@@ -4287,19 +4287,19 @@
         <v>64326</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>48626</v>
+        <v>50199</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>81330</v>
+        <v>82845</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009330691043668004</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007053309704032404</v>
+        <v>0.007281532793780758</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01179713712723286</v>
+        <v>0.01201686516329319</v>
       </c>
     </row>
     <row r="17">
@@ -4316,19 +4316,19 @@
         <v>3336711</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3324530</v>
+        <v>3323895</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3347127</v>
+        <v>3347190</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9909212581501965</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9873036194379406</v>
+        <v>0.9871152045085252</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9940145308864771</v>
+        <v>0.9940330411073016</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3293</v>
@@ -4337,19 +4337,19 @@
         <v>3493036</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3478678</v>
+        <v>3478222</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3503913</v>
+        <v>3503125</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9904287549449079</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9863575146160271</v>
+        <v>0.9862283438173353</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9935126873345569</v>
+        <v>0.9932895069370297</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6468</v>
@@ -4358,19 +4358,19 @@
         <v>6829749</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6812745</v>
+        <v>6811230</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6845449</v>
+        <v>6843876</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.990669308956332</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9882028628727673</v>
+        <v>0.9879831348367069</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9929466902959676</v>
+        <v>0.9927184672062194</v>
       </c>
     </row>
     <row r="18">
